--- a/REGULAR/TOLENTINO, AGNES D.xlsx
+++ b/REGULAR/TOLENTINO, AGNES D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F7158-2969-4E86-9966-06A90B0499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF6E53-C230-4588-8905-E0F834407A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>SINGAPORE 7/11-13/2023</t>
+  </si>
+  <si>
+    <t>11/2-6/2023 JAPAN</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,6 +617,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,12 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,9 +1263,9 @@
   <dimension ref="A2:K212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A130" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A136" activePane="bottomLeft"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,66 +1287,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>41456</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1372,18 +1372,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1440,7 +1440,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1468,10 +1468,10 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="60">
+      <c r="A11" s="23">
         <v>41486</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="13">
@@ -1490,7 +1490,7 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="60">
+      <c r="A12" s="23">
         <v>41517</v>
       </c>
       <c r="B12" s="20"/>
@@ -1510,7 +1510,7 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="60">
+      <c r="A13" s="23">
         <v>41547</v>
       </c>
       <c r="B13" s="20"/>
@@ -1530,7 +1530,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="60">
+      <c r="A14" s="23">
         <v>41578</v>
       </c>
       <c r="B14" s="20"/>
@@ -1550,7 +1550,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="60">
+      <c r="A15" s="23">
         <v>41608</v>
       </c>
       <c r="B15" s="20"/>
@@ -1570,7 +1570,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="60">
+      <c r="A16" s="23">
         <v>41639</v>
       </c>
       <c r="B16" s="20"/>
@@ -1608,7 +1608,7 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="60">
+      <c r="A18" s="23">
         <v>41670</v>
       </c>
       <c r="B18" s="20"/>
@@ -1628,7 +1628,7 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="60">
+      <c r="A19" s="23">
         <v>41698</v>
       </c>
       <c r="B19" s="20"/>
@@ -1648,7 +1648,7 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="60">
+      <c r="A20" s="23">
         <v>41729</v>
       </c>
       <c r="B20" s="20"/>
@@ -1668,7 +1668,7 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="60">
+      <c r="A21" s="23">
         <v>41759</v>
       </c>
       <c r="B21" s="20"/>
@@ -1688,7 +1688,7 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="60">
+      <c r="A22" s="23">
         <v>41790</v>
       </c>
       <c r="B22" s="20"/>
@@ -1708,7 +1708,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="60">
+      <c r="A23" s="23">
         <v>41820</v>
       </c>
       <c r="B23" s="20"/>
@@ -1728,7 +1728,7 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="60">
+      <c r="A24" s="23">
         <v>41851</v>
       </c>
       <c r="B24" s="20"/>
@@ -1748,7 +1748,7 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="60">
+      <c r="A25" s="23">
         <v>41882</v>
       </c>
       <c r="B25" s="20"/>
@@ -1768,7 +1768,7 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="60">
+      <c r="A26" s="23">
         <v>41912</v>
       </c>
       <c r="B26" s="20"/>
@@ -1788,7 +1788,7 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="60">
+      <c r="A27" s="23">
         <v>41943</v>
       </c>
       <c r="B27" s="20"/>
@@ -1808,7 +1808,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="60">
+      <c r="A28" s="23">
         <v>41973</v>
       </c>
       <c r="B28" s="20"/>
@@ -1828,7 +1828,7 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="60">
+      <c r="A29" s="23">
         <v>42004</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -1870,7 +1870,7 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="60">
+      <c r="A31" s="23">
         <v>42035</v>
       </c>
       <c r="B31" s="20"/>
@@ -1890,7 +1890,7 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="60">
+      <c r="A32" s="23">
         <v>42063</v>
       </c>
       <c r="B32" s="20"/>
@@ -1910,7 +1910,7 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="60">
+      <c r="A33" s="23">
         <v>42094</v>
       </c>
       <c r="B33" s="20"/>
@@ -1930,7 +1930,7 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="60">
+      <c r="A34" s="23">
         <v>42124</v>
       </c>
       <c r="B34" s="20"/>
@@ -1950,7 +1950,7 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="60">
+      <c r="A35" s="23">
         <v>42155</v>
       </c>
       <c r="B35" s="20"/>
@@ -1970,7 +1970,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="60">
+      <c r="A36" s="23">
         <v>42185</v>
       </c>
       <c r="B36" s="20"/>
@@ -1990,7 +1990,7 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="60">
+      <c r="A37" s="23">
         <v>42216</v>
       </c>
       <c r="B37" s="20"/>
@@ -2010,7 +2010,7 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="60">
+      <c r="A38" s="23">
         <v>42247</v>
       </c>
       <c r="B38" s="20"/>
@@ -2030,7 +2030,7 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="60">
+      <c r="A39" s="23">
         <v>42277</v>
       </c>
       <c r="B39" s="20"/>
@@ -2050,7 +2050,7 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="60">
+      <c r="A40" s="23">
         <v>42308</v>
       </c>
       <c r="B40" s="20"/>
@@ -2070,7 +2070,7 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="60">
+      <c r="A41" s="23">
         <v>42338</v>
       </c>
       <c r="B41" s="20"/>
@@ -2090,7 +2090,7 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="60">
+      <c r="A42" s="23">
         <v>42369</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -2132,7 +2132,7 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="60">
+      <c r="A44" s="23">
         <v>42400</v>
       </c>
       <c r="B44" s="20"/>
@@ -2152,7 +2152,7 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="60">
+      <c r="A45" s="23">
         <v>42429</v>
       </c>
       <c r="B45" s="20"/>
@@ -2172,7 +2172,7 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="60">
+      <c r="A46" s="23">
         <v>42460</v>
       </c>
       <c r="B46" s="20"/>
@@ -2192,7 +2192,7 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="60">
+      <c r="A47" s="23">
         <v>42490</v>
       </c>
       <c r="B47" s="20"/>
@@ -2212,7 +2212,7 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="60">
+      <c r="A48" s="23">
         <v>42521</v>
       </c>
       <c r="B48" s="20"/>
@@ -2232,7 +2232,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="60">
+      <c r="A49" s="23">
         <v>42551</v>
       </c>
       <c r="B49" s="20"/>
@@ -2252,7 +2252,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="60">
+      <c r="A50" s="23">
         <v>42582</v>
       </c>
       <c r="B50" s="20"/>
@@ -2272,7 +2272,7 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="60">
+      <c r="A51" s="23">
         <v>42613</v>
       </c>
       <c r="B51" s="20"/>
@@ -2292,7 +2292,7 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="60">
+      <c r="A52" s="23">
         <v>42643</v>
       </c>
       <c r="B52" s="20"/>
@@ -2312,7 +2312,7 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="60">
+      <c r="A53" s="23">
         <v>42674</v>
       </c>
       <c r="B53" s="20"/>
@@ -2332,7 +2332,7 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="60">
+      <c r="A54" s="23">
         <v>42704</v>
       </c>
       <c r="B54" s="20"/>
@@ -2352,7 +2352,7 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="60">
+      <c r="A55" s="23">
         <v>42735</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -2394,7 +2394,7 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="60">
+      <c r="A57" s="23">
         <v>42766</v>
       </c>
       <c r="B57" s="20"/>
@@ -2414,7 +2414,7 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="60">
+      <c r="A58" s="23">
         <v>42794</v>
       </c>
       <c r="B58" s="20"/>
@@ -2434,7 +2434,7 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="60">
+      <c r="A59" s="23">
         <v>42825</v>
       </c>
       <c r="B59" s="20"/>
@@ -2454,7 +2454,7 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="60">
+      <c r="A60" s="23">
         <v>42855</v>
       </c>
       <c r="B60" s="20"/>
@@ -2474,7 +2474,7 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="60">
+      <c r="A61" s="23">
         <v>42886</v>
       </c>
       <c r="B61" s="20"/>
@@ -2494,7 +2494,7 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="60">
+      <c r="A62" s="23">
         <v>42916</v>
       </c>
       <c r="B62" s="20"/>
@@ -2514,7 +2514,7 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="60">
+      <c r="A63" s="23">
         <v>42947</v>
       </c>
       <c r="B63" s="20"/>
@@ -2534,7 +2534,7 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="60">
+      <c r="A64" s="23">
         <v>42978</v>
       </c>
       <c r="B64" s="20"/>
@@ -2554,7 +2554,7 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="60">
+      <c r="A65" s="23">
         <v>43008</v>
       </c>
       <c r="B65" s="20"/>
@@ -2574,7 +2574,7 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="60">
+      <c r="A66" s="23">
         <v>43039</v>
       </c>
       <c r="B66" s="20"/>
@@ -2594,7 +2594,7 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="60">
+      <c r="A67" s="23">
         <v>43069</v>
       </c>
       <c r="B67" s="20"/>
@@ -2614,7 +2614,7 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="60">
+      <c r="A68" s="23">
         <v>43100</v>
       </c>
       <c r="B68" s="20" t="s">
@@ -2656,7 +2656,7 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="60">
+      <c r="A70" s="23">
         <v>43131</v>
       </c>
       <c r="B70" s="20"/>
@@ -2676,7 +2676,7 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="60">
+      <c r="A71" s="23">
         <v>43159</v>
       </c>
       <c r="B71" s="20"/>
@@ -2696,7 +2696,7 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="60">
+      <c r="A72" s="23">
         <v>43190</v>
       </c>
       <c r="B72" s="20"/>
@@ -2716,7 +2716,7 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="60">
+      <c r="A73" s="23">
         <v>43220</v>
       </c>
       <c r="B73" s="20"/>
@@ -2736,7 +2736,7 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="60">
+      <c r="A74" s="23">
         <v>43251</v>
       </c>
       <c r="B74" s="20"/>
@@ -2756,7 +2756,7 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="60">
+      <c r="A75" s="23">
         <v>43281</v>
       </c>
       <c r="B75" s="20"/>
@@ -2776,7 +2776,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="60">
+      <c r="A76" s="23">
         <v>43312</v>
       </c>
       <c r="B76" s="20"/>
@@ -2796,7 +2796,7 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="60">
+      <c r="A77" s="23">
         <v>43343</v>
       </c>
       <c r="B77" s="20"/>
@@ -2816,7 +2816,7 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="60">
+      <c r="A78" s="23">
         <v>43373</v>
       </c>
       <c r="B78" s="20"/>
@@ -2836,7 +2836,7 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="60">
+      <c r="A79" s="23">
         <v>43404</v>
       </c>
       <c r="B79" s="20"/>
@@ -2856,7 +2856,7 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="60">
+      <c r="A80" s="23">
         <v>43434</v>
       </c>
       <c r="B80" s="20"/>
@@ -2876,7 +2876,7 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="60">
+      <c r="A81" s="23">
         <v>43465</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -2918,7 +2918,7 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="60">
+      <c r="A83" s="23">
         <v>43496</v>
       </c>
       <c r="B83" s="20"/>
@@ -2938,7 +2938,7 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="60">
+      <c r="A84" s="23">
         <v>43524</v>
       </c>
       <c r="B84" s="20"/>
@@ -2958,7 +2958,7 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="60">
+      <c r="A85" s="23">
         <v>43555</v>
       </c>
       <c r="B85" s="20"/>
@@ -2978,7 +2978,7 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="60">
+      <c r="A86" s="23">
         <v>43585</v>
       </c>
       <c r="B86" s="20"/>
@@ -2998,7 +2998,7 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="60">
+      <c r="A87" s="23">
         <v>43616</v>
       </c>
       <c r="B87" s="20"/>
@@ -3018,7 +3018,7 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="60">
+      <c r="A88" s="23">
         <v>43646</v>
       </c>
       <c r="B88" s="20"/>
@@ -4100,15 +4100,17 @@
       <c r="B141" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C141" s="13"/>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D141" s="39">
         <v>3</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H141" s="39"/>
       <c r="I141" s="9"/>
@@ -4122,13 +4124,15 @@
         <v>45139</v>
       </c>
       <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D142" s="39"/>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
@@ -4140,13 +4144,15 @@
         <v>45170</v>
       </c>
       <c r="B143" s="20"/>
-      <c r="C143" s="13"/>
+      <c r="C143" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D143" s="39"/>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G143" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
@@ -4157,19 +4163,27 @@
       <c r="A144" s="40">
         <v>45200</v>
       </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="39"/>
+      <c r="B144" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D144" s="39">
+        <v>2</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G144" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H144" s="39"/>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="20"/>
+      <c r="K144" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
@@ -5354,17 +5368,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5442,17 +5456,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
